--- a/office/genV1.2_表格模板.xlsx
+++ b/office/genV1.2_表格模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limeng\Desktop\程序\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace1\py_tools\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4E0213-2236-47C7-ADDC-68ADEDE099BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBEFB8F-6871-4471-85BC-EF65FFC7EDCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2040" windowWidth="23025" windowHeight="11385" xr2:uid="{6BFDA7AB-7DD4-4831-91D9-AD345401B375}"/>
   </bookViews>
@@ -552,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1835FD41-2552-482E-8EC6-245B70520F9A}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -692,6 +692,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>

--- a/office/genV1.2_表格模板.xlsx
+++ b/office/genV1.2_表格模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace1\py_tools\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBEFB8F-6871-4471-85BC-EF65FFC7EDCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69C8585-A8E0-4F2F-B13F-80B1A8175F6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2040" windowWidth="23025" windowHeight="11385" xr2:uid="{6BFDA7AB-7DD4-4831-91D9-AD345401B375}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BFDA7AB-7DD4-4831-91D9-AD345401B375}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>送 检 单 位</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>采集数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.1.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.1.8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -552,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1835FD41-2552-482E-8EC6-245B70520F9A}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -564,9 +576,10 @@
     <col min="5" max="5" width="13.375" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
@@ -582,7 +595,7 @@
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -619,10 +632,13 @@
       <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M2" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="63" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="63" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
@@ -655,8 +671,11 @@
       <c r="L3" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="M3" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="63" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="63" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
@@ -691,8 +710,11 @@
       <c r="L4" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="M4" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -705,6 +727,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/office/genV1.2_表格模板.xlsx
+++ b/office/genV1.2_表格模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace1\py_tools\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69C8585-A8E0-4F2F-B13F-80B1A8175F6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69138F14-1D89-4E70-A6F3-4E6FEBECACE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BFDA7AB-7DD4-4831-91D9-AD345401B375}"/>
+    <workbookView xWindow="2685" yWindow="2040" windowWidth="23025" windowHeight="11385" xr2:uid="{6BFDA7AB-7DD4-4831-91D9-AD345401B375}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>送 检 单 位</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>箱号/柜号</t>
-  </si>
-  <si>
-    <t>中粮家佳康食品营销（天津）有限公司</t>
   </si>
   <si>
     <t>TH0001761</t>
@@ -112,6 +109,14 @@
   </si>
   <si>
     <t>2021.1.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fsf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdfsf</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +572,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -581,7 +586,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -633,85 +638,85 @@
         <v>11</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="63" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="8">
         <v>822068913</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="63" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="G4" s="8">
         <v>822068913</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
